--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Source:</t>
   </si>
@@ -156,9 +156,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -172,6 +169,18 @@
   </si>
   <si>
     <t>geographically resource-constrained.  (An arbitrarily high limit number is used on the next tab.)</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +829,7 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="15">
         <v>4000</v>
       </c>
       <c r="D11" t="s">
@@ -912,18 +921,33 @@
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>50</v>
-      </c>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="11">
+        <f>B11*1000</f>
+        <v>4000000</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B19" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -932,22 +956,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +985,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="16">
         <f>9*10^12</f>
@@ -970,7 +994,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="16">
         <f>9*10^12</f>
@@ -1022,7 +1046,35 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <f>Data!B22</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="16">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="16">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Source:</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Page iv, Table ES-1</t>
   </si>
   <si>
-    <t>DOE Office of Energy Efficiency and Renewable Energy</t>
-  </si>
-  <si>
-    <t>New Stream-Reach Hydropower Development</t>
-  </si>
-  <si>
-    <t>http://energy.gov/sites/prod/files/2014/04/f15/New%20Stream-Reach%20Development%20Potential%20April%202014.pdf</t>
-  </si>
-  <si>
-    <t>Pages 1-2</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -102,12 +90,6 @@
     <t>Hydro</t>
   </si>
   <si>
-    <t>Start Year Capacity</t>
-  </si>
-  <si>
-    <t>Additional Potential</t>
-  </si>
-  <si>
     <t>Total Potential</t>
   </si>
   <si>
@@ -117,12 +99,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>See "Start Year Electricity Generation Capacity" variable</t>
-  </si>
-  <si>
-    <t>DOE EERE (see "About" tab)</t>
-  </si>
-  <si>
     <t>Electricity Source (model subscript)</t>
   </si>
   <si>
@@ -181,6 +157,39 @@
   </si>
   <si>
     <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>Existing Fleet</t>
+  </si>
+  <si>
+    <t>Modeled Potential - Upgrades and optimization of Existing Hydropower Plants</t>
+  </si>
+  <si>
+    <t>Technical Potential - Powering of Non-Powered Dams</t>
+  </si>
+  <si>
+    <t>Technical Potential - Powering Existing Canals and Conduits</t>
+  </si>
+  <si>
+    <t>Technical Potential - New Stream-Reach Development</t>
+  </si>
+  <si>
+    <t>See Table O3-3</t>
+  </si>
+  <si>
+    <t>See Figure O3-8</t>
+  </si>
+  <si>
+    <t>Figures O3-3 and O3-8</t>
+  </si>
+  <si>
+    <t>https://energy.gov/sites/prod/files/2016/10/f33/Hydropower-Vision-Chapter-3-10212016.pdf</t>
+  </si>
+  <si>
+    <t>US Department of Energy</t>
+  </si>
+  <si>
+    <t>Chapter 3: Assessment of National Hydropower Potential</t>
   </si>
 </sst>
 </file>
@@ -305,6 +314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,42 +663,41 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,180 +705,207 @@
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8">
-        <v>78.105000000000004</v>
+        <v>101.2</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>153000</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8">
-        <v>65.5</v>
+        <v>6.9</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>664</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9">
-        <f>SUM(E3:E4)</f>
-        <v>143.60500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>38000</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>11000</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6">
+        <v>65.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10">
         <v>4200</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
+        <f>SUM(E3:E7)</f>
+        <v>187.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15">
         <v>4000</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>60</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B17" s="11">
-        <f>E5*1000</f>
-        <v>143605.00000000003</v>
+        <f>E9*1000</f>
+        <v>187600.00000000003</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
@@ -875,7 +913,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="11">
         <f>B7*1000</f>
@@ -887,7 +925,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" s="11">
         <f>SUM(B3:B5)*1000</f>
@@ -899,7 +937,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11">
         <f>B6*1000</f>
@@ -911,7 +949,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21" s="11">
         <f>B9*1000</f>
@@ -923,7 +961,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11">
         <f>B11*1000</f>
@@ -935,12 +973,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -968,15 +1006,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" s="16">
         <f>9*10^12</f>
@@ -985,7 +1023,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" s="16">
         <f>9*10^12</f>
@@ -994,7 +1032,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" s="16">
         <f>9*10^12</f>
@@ -1003,16 +1041,16 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <f>Data!B17</f>
-        <v>143605.00000000003</v>
+        <v>187600.00000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>Data!B18</f>
@@ -1021,7 +1059,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <f>Data!B19</f>
@@ -1030,7 +1068,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <f>Data!B20</f>
@@ -1039,7 +1077,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <f>Data!B21</f>
@@ -1048,7 +1086,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <f>Data!B22</f>
@@ -1057,7 +1095,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" s="16">
         <f>9*10^12</f>
@@ -1066,7 +1104,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="16">
         <f>9*10^12</f>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Source:</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Urban utility-scale PV</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>Rural utility-scale PV</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Max Potential Capacity (MW)</t>
   </si>
   <si>
-    <t>Maximums for coal, natural gas, and nuclear are not imposed, as these three power types are unlikely to be</t>
-  </si>
-  <si>
     <t>geographically resource-constrained.  (An arbitrarily high limit number is used on the next tab.)</t>
   </si>
   <si>
@@ -190,6 +181,21 @@
   </si>
   <si>
     <t>Chapter 3: Assessment of National Hydropower Potential</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Maximums for coal, natural gas, and nuclear are not imposed, as these power types are unlikely to be</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +669,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,17 +679,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,13 +729,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,101 +746,101 @@
         <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8">
         <v>101.2</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>153000</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>6.9</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>664</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="15">
         <v>38000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>11000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6">
         <v>65.5</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
         <v>4200</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9">
         <f>SUM(E3:E7)</f>
@@ -843,7 +849,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10">
         <v>38</v>
@@ -852,7 +858,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="15">
         <v>4000</v>
@@ -863,45 +869,45 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="11">
         <f>E9*1000</f>
@@ -913,7 +919,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B18" s="11">
         <f>B7*1000</f>
@@ -925,7 +931,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11">
         <f>SUM(B3:B5)*1000</f>
@@ -937,7 +943,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11">
         <f>B6*1000</f>
@@ -949,7 +955,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="11">
         <f>B9*1000</f>
@@ -961,7 +967,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11">
         <f>B11*1000</f>
@@ -971,14 +977,26 @@
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B8*1000</f>
+        <v>4200000</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1012,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1006,15 +1024,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B2" s="16">
         <f>9*10^12</f>
@@ -1023,7 +1041,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="16">
         <f>9*10^12</f>
@@ -1032,7 +1050,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="16">
         <f>9*10^12</f>
@@ -1041,7 +1059,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <f>Data!B17</f>
@@ -1050,7 +1068,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <f>Data!B18</f>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <f>Data!B19</f>
@@ -1068,7 +1086,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <f>Data!B20</f>
@@ -1077,7 +1095,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <f>Data!B21</f>
@@ -1086,7 +1104,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <f>Data!B22</f>
@@ -1095,7 +1113,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16">
         <f>9*10^12</f>
@@ -1104,11 +1122,29 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16">
         <f>9*10^12</f>
         <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="16">
+        <f>B2</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <f>Data!B23</f>
+        <v>4200000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\MPCbS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="405" windowWidth="22755" windowHeight="12300"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Source:</t>
   </si>
@@ -135,9 +140,6 @@
     <t>Max Potential Capacity (MW)</t>
   </si>
   <si>
-    <t>geographically resource-constrained.  (An arbitrarily high limit number is used on the next tab.)</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -195,18 +197,114 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Maximums for coal, natural gas, and nuclear are not imposed, as these power types are unlikely to be</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste</t>
+  </si>
+  <si>
+    <t>Maximums for coal, natural gas, and nuclear are not imposed,</t>
+  </si>
+  <si>
+    <t>as these power types are unlikely to be</t>
+  </si>
+  <si>
+    <t>geographically resource-constrained.</t>
+  </si>
+  <si>
+    <t>(An arbitrarily high limit number is used on the next tab.)</t>
+  </si>
+  <si>
+    <t>see elec/SYC</t>
+  </si>
+  <si>
+    <t>MSW Tonnage Data for Year 2015</t>
+  </si>
+  <si>
+    <t>U.S. MSW generated (million tons)</t>
+  </si>
+  <si>
+    <t>U.S. MSW burned with energy recovery (million tons)</t>
+  </si>
+  <si>
+    <t>U.S. MSW recycled (million tons)</t>
+  </si>
+  <si>
+    <t>U.S. MSW composted (million tons)</t>
+  </si>
+  <si>
+    <t>U.S. MSW landfilled (million tons)</t>
+  </si>
+  <si>
+    <t>Combustible share of landfilled MSW</t>
+  </si>
+  <si>
+    <t>Assumes metals, glass, and "other" waste types are not combustible.</t>
+  </si>
+  <si>
+    <t>We assume burning materials that are today being recycled or composted is environmentally</t>
+  </si>
+  <si>
+    <t>counter-productive and also un-economic, so we assume all potential increase in MSW combustion</t>
+  </si>
+  <si>
+    <t>must come from the landfilled share of wastes.</t>
+  </si>
+  <si>
+    <t>MSW Combustion growth potential (% increase)</t>
+  </si>
+  <si>
+    <t>Start Year Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Max MSW Potential Capacity (MW)</t>
+  </si>
+  <si>
+    <t>U.S. Environmental Protection Agency</t>
+  </si>
+  <si>
+    <t>National Overview: Facts and Figures on Materials, Wastes and Recycling</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/facts-and-figures-about-materials-waste-and-recycling/national-overview-facts-and-figures-materials</t>
+  </si>
+  <si>
+    <t>U.S. EPA</t>
+  </si>
+  <si>
+    <t>We also use start year MSW capacity from elec/SYC</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>These maximums reflect the available resource potential for hydro, wind, solar, and biomass power.</t>
+  </si>
+  <si>
+    <t>Maximums for coal, natural gas, and nuclear are not imposed, as these power types are unlikely to</t>
+  </si>
+  <si>
+    <t>be geographically resource-constrained. (An arbitrarily high number is chosen here, to ensure</t>
+  </si>
+  <si>
+    <t>this limit doesn't come into play for these three electricity sources.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +338,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +391,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -309,6 +415,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -371,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,9 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -669,7 +790,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,31 +800,87 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,13 +923,13 @@
         <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8">
         <v>101.2</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -763,13 +940,13 @@
         <v>153000</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8">
         <v>6.9</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,13 +957,13 @@
         <v>664</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,13 +974,13 @@
         <v>38000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,13 +991,13 @@
         <v>11000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6">
         <v>65.5</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,7 +1096,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="11">
         <f>B7*1000</f>
@@ -937,9 +1114,13 @@
         <f>SUM(B3:B5)*1000</f>
         <v>154864000</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -949,9 +1130,15 @@
         <f>B6*1000</f>
         <v>38000000</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1820</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -961,42 +1148,142 @@
         <f>B9*1000</f>
         <v>62000</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="11">
         <f>B11*1000</f>
         <v>4000000</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="11">
         <f>B8*1000</f>
         <v>4200000</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="23">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="19">
+        <v>33.57</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="21">
+        <v>67.8</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="21">
+        <v>23.4</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="21">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="26">
+        <f>E27*E29/E24</f>
+        <v>3.4127613941018762</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="27">
+        <f>E20*(1+E36)</f>
+        <v>8031.2257372654149</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1299,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1032,7 +1319,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16">
         <f>9*10^12</f>
@@ -1041,7 +1328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="16">
         <f>9*10^12</f>
@@ -1068,7 +1355,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <f>Data!B18</f>
@@ -1104,7 +1391,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <f>Data!B22</f>
@@ -1113,7 +1400,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16">
         <f>9*10^12</f>
@@ -1122,7 +1409,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="16">
         <f>9*10^12</f>
@@ -1131,7 +1418,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="16">
         <f>B2</f>
@@ -1140,11 +1427,38 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <f>Data!B23</f>
         <v>4200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="16">
+        <f>B11</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="16">
+        <f>B11</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="16">
+        <f>Data!E37</f>
+        <v>8031.2257372654149</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFF902-A97A-4631-8EC0-9FFBBBA7FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="22755" windowHeight="12300"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Source:</t>
   </si>
@@ -140,9 +153,6 @@
     <t>Max Potential Capacity (MW)</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -287,19 +297,25 @@
     <t>These maximums reflect the available resource potential for hydro, wind, solar, and biomass power.</t>
   </si>
   <si>
-    <t>Maximums for coal, natural gas, and nuclear are not imposed, as these power types are unlikely to</t>
-  </si>
-  <si>
     <t>be geographically resource-constrained. (An arbitrarily high number is chosen here, to ensure</t>
   </si>
   <si>
-    <t>this limit doesn't come into play for these three electricity sources.)</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Maximums for fossil fuels and nuclear are not imposed, as these power types are unlikely to</t>
+  </si>
+  <si>
+    <t>this limit doesn't come into play for these electricity sources.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
@@ -523,6 +539,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -558,6 +591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,12 +783,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,7 +838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,27 +848,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,48 +878,48 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -879,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -923,13 +971,13 @@
         <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8">
         <v>101.2</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -940,13 +988,13 @@
         <v>153000</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8">
         <v>6.9</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,13 +1005,13 @@
         <v>664</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,13 +1022,13 @@
         <v>38000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -991,13 +1039,13 @@
         <v>11000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6">
         <v>65.5</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1096,7 +1144,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11">
         <f>B7*1000</f>
@@ -1115,7 +1163,7 @@
         <v>154864000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="2" t="s">
@@ -1131,13 +1179,13 @@
         <v>38000000</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="20">
         <v>1820</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,126 +1199,126 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="11">
         <f>B11*1000</f>
         <v>4000000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="11">
         <f>B8*1000</f>
         <v>4200000</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="23">
         <v>262.39999999999998</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="19">
         <v>33.57</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="21">
         <v>67.8</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="21">
         <v>23.4</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="21">
         <v>137.69999999999999</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="24">
         <v>0.83199999999999996</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="26">
         <f>E27*E29/E24</f>
@@ -1279,7 +1327,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="27">
         <f>E20*(1+E36)</f>
@@ -1295,17 +1343,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1319,7 +1367,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="16">
         <f>9*10^12</f>
@@ -1328,7 +1376,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B3" s="16">
         <f>9*10^12</f>
@@ -1337,7 +1385,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B4" s="16">
         <f>9*10^12</f>
@@ -1346,70 +1394,70 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="16">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>Data!B17</f>
         <v>187600.00000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
         <f>Data!B18</f>
         <v>11000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>Data!B19</f>
         <v>154864000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>Data!B20</f>
         <v>38000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>Data!B21</f>
         <v>62000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
         <f>Data!B22</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="16">
-        <f>9*10^12</f>
-        <v>9000000000000</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="16">
         <f>9*10^12</f>
@@ -1418,45 +1466,54 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B13" s="16">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
         <f>B2</f>
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
         <f>Data!B23</f>
         <v>4200000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="16">
-        <f>B11</f>
-        <v>9000000000000</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="16">
-        <f>B11</f>
+        <f>B12</f>
         <v>9000000000000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="16">
+        <f>B12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="16">
         <f>Data!E37</f>
         <v>8031.2257372654149</v>
       </c>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFF902-A97A-4631-8EC0-9FFBBBA7FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D170BCBC-73B1-4B81-9398-317E8AC00316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Source:</t>
   </si>
@@ -310,6 +310,24 @@
   </si>
   <si>
     <t>this limit doesn't come into play for these electricity sources.)</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,22 +442,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -464,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,9 +516,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,26 +551,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,26 +586,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -887,7 +865,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -930,7 +908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1018,7 +998,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>38000</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1052,7 +1032,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8">
         <v>4200</v>
       </c>
       <c r="I8" s="8"/>
@@ -1085,7 +1065,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11">
         <v>4000</v>
       </c>
       <c r="E11" s="6"/>
@@ -1138,9 +1118,9 @@
         <f>E9*1000</f>
         <v>187600.00000000003</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1150,9 +1130,9 @@
         <f>B7*1000</f>
         <v>11000000</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1165,7 +1145,7 @@
       <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1178,13 +1158,13 @@
         <f>B6*1000</f>
         <v>38000000</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="14">
         <v>1820</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1217,66 +1197,66 @@
         <f>B8*1000</f>
         <v>4200000</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="8">
         <v>262.39999999999998</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="18" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>33.57</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25">
         <v>67.8</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26">
         <v>23.4</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27">
         <v>137.69999999999999</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1289,15 +1269,15 @@
       <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="18">
         <v>0.83199999999999996</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1320,7 +1300,7 @@
       <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <f>E27*E29/E24</f>
         <v>3.4127613941018762</v>
       </c>
@@ -1329,7 +1309,7 @@
       <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="21">
         <f>E20*(1+E36)</f>
         <v>8031.2257372654149</v>
       </c>
@@ -1347,9 +1327,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1369,7 +1351,7 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1378,7 +1360,7 @@
       <c r="A3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1387,7 +1369,7 @@
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1396,7 +1378,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1459,7 +1441,7 @@
       <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1468,7 +1450,7 @@
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
@@ -1477,7 +1459,7 @@
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <f>B2</f>
         <v>9000000000000</v>
       </c>
@@ -1495,7 +1477,7 @@
       <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>B12</f>
         <v>9000000000000</v>
       </c>
@@ -1504,7 +1486,7 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f>B12</f>
         <v>9000000000000</v>
       </c>
@@ -1513,9 +1495,62 @@
       <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f>Data!E37</f>
         <v>8031.2257372654149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="14">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="14">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="14">
+        <f>B10</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="14">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="14">
+        <f>9*10^12</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D170BCBC-73B1-4B81-9398-317E8AC00316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788C475C-6422-4464-AA22-0CCF1BF6C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1550,8 @@
         <v>97</v>
       </c>
       <c r="B24" s="14">
-        <v>0</v>
+        <f>B13</f>
+        <v>9000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788C475C-6422-4464-AA22-0CCF1BF6C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D6EFB1-532C-499B-8BB2-D38B4746374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Source:</t>
   </si>
@@ -327,7 +327,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +387,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -425,7 +435,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -456,6 +466,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1327,10 +1340,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,11 +1559,20 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="14">
         <f>B13</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="14">
+        <f>B4</f>
         <v>9000000000000</v>
       </c>
     </row>
